--- a/report_folder/report_1.a_ve.xlsx
+++ b/report_folder/report_1.a_ve.xlsx
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>

--- a/report_folder/report_1.a_ve.xlsx
+++ b/report_folder/report_1.a_ve.xlsx
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>18.2% der Karten</t>
+          <t>20.0% der Karten</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4508,11 +4508,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(9.1%)</t>
+          <t>(0.0%)</t>
         </is>
       </c>
     </row>
@@ -4539,11 +4539,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Manuel Díaz Cordero</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Manuel Díaz Cordero</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
@@ -4684,11 +4684,8 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Manuel Díaz Cordero</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>Aktivste Helfer</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4754,7 +4751,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4813,7 +4810,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>

--- a/report_folder/report_1.a_ve.xlsx
+++ b/report_folder/report_1.a_ve.xlsx
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>

--- a/report_folder/report_1.a_ve.xlsx
+++ b/report_folder/report_1.a_ve.xlsx
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
